--- a/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
+++ b/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nde4i\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\wiss1tool-wiss1 (17)\wiss1tool-wiss1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6087CE5-11F9-488E-A127-94384772C9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CB777C-45EB-45E6-8CBA-A3F9C7554996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録表" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -739,16 +738,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>返却値をintからstringへ</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CreateCsv</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -759,16 +748,6 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>返却値</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1025,6 +1004,141 @@
     <t>No.21と同様</t>
     <rPh sb="6" eb="8">
       <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返却値をメソッド名を小文字始まりに修正
+例）return AllFileSorting();にする</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定数が左に来るように修正</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileCheckにJavadocを追加</t>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int型の9を渡しているのをboolean型へ修正</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>utillのmessageをクラス変数にもつように修正</t>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返却値をintからstringへ修正</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値をintからstringへ</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力返却値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※全クラス対象</t>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名が簡易的過ぎる</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カンイテキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中村、西尾、西川</t>
+    <rPh sb="3" eb="5">
+      <t>ニシオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニシカワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1551,38 +1665,38 @@
   <dimension ref="B2:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="2.59765625" style="1"/>
+    <col min="1" max="2" width="2.625" style="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.3984375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="2.59765625" style="1"/>
+    <col min="16" max="16" width="34.375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
@@ -1648,7 +1762,7 @@
       </c>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C6" s="4">
         <f>IF(D6="","",ROW()-5)</f>
         <v>1</v>
@@ -1687,11 +1801,13 @@
       <c r="O6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="P6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C7" s="4">
-        <f t="shared" ref="C7:C28" si="0">IF(D7="","",ROW()-5)</f>
+        <f t="shared" ref="C7:C14" si="0">IF(D7="","",ROW()-5)</f>
         <v>2</v>
       </c>
       <c r="D7" s="4" t="str">
@@ -1730,7 +1846,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1767,7 +1883,7 @@
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="2:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1808,7 +1924,7 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1849,7 +1965,7 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="2:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1888,9 +2004,11 @@
       <c r="O11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="P11" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1933,7 +2051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1976,7 +2094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2019,14 +2137,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C15" s="4">
         <f t="shared" ref="C15:C36" si="3">IF(D15="","",ROW()-5)</f>
         <v>10</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" ref="D15:D36" si="4">IF(N15="",IF(K15="",IF(E15="","","対応中"),"確認中"),"完了")</f>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="E15" s="18">
         <v>44165</v>
@@ -2046,27 +2164,31 @@
       <c r="J15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="21">
+        <v>44166</v>
+      </c>
       <c r="L15" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="O15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="2:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="94.5" x14ac:dyDescent="0.4">
       <c r="C16" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="E16" s="18">
         <v>44165</v>
@@ -2086,27 +2208,31 @@
       <c r="J16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="21">
+        <v>44166</v>
+      </c>
       <c r="L16" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="O16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="E17" s="18">
         <v>44165</v>
@@ -2126,25 +2252,31 @@
       <c r="J17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="21">
+        <v>44166</v>
+      </c>
       <c r="L17" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="O17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="P17" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="E18" s="18">
         <v>44165</v>
@@ -2164,27 +2296,31 @@
       <c r="J18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="21">
+        <v>44167</v>
+      </c>
       <c r="L18" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="E19" s="18">
         <v>44165</v>
@@ -2204,25 +2340,29 @@
       <c r="J19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="21">
+        <v>44166</v>
+      </c>
       <c r="L19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="O19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="E20" s="18">
         <v>44165</v>
@@ -2242,27 +2382,31 @@
       <c r="J20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="21">
+        <v>44167</v>
+      </c>
       <c r="L20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="O20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="E21" s="18">
         <v>44165</v>
@@ -2280,16 +2424,20 @@
         <v>72</v>
       </c>
       <c r="J21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="21">
+        <v>44167</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="O21" s="4" t="s">
         <v>14</v>
       </c>
@@ -2297,14 +2445,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="E22" s="18">
         <v>44165</v>
@@ -2319,25 +2467,29 @@
         <v>36</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="K22" s="21">
+        <v>44167</v>
+      </c>
       <c r="L22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="O22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2359,10 +2511,10 @@
         <v>33</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="str">
@@ -2376,7 +2528,7 @@
       </c>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -2395,13 +2547,13 @@
         <v>27</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="str">
@@ -2415,7 +2567,7 @@
       </c>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2437,10 +2589,10 @@
         <v>33</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="str">
@@ -2454,7 +2606,7 @@
       </c>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -2477,7 +2629,7 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="str">
@@ -2491,7 +2643,7 @@
       </c>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2513,10 +2665,10 @@
         <v>32</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="4" t="str">
@@ -2530,7 +2682,7 @@
       </c>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2552,10 +2704,10 @@
         <v>32</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="4" t="str">
@@ -2569,7 +2721,7 @@
       </c>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2591,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="4" t="str">
@@ -2608,7 +2760,7 @@
       </c>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2630,10 +2782,10 @@
         <v>32</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="4" t="str">
@@ -2647,7 +2799,7 @@
       </c>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2669,10 +2821,10 @@
         <v>32</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="4" t="str">
@@ -2686,7 +2838,7 @@
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2708,10 +2860,10 @@
         <v>32</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="4" t="str">
@@ -2725,7 +2877,7 @@
       </c>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -2747,10 +2899,10 @@
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="K33" s="21"/>
       <c r="L33" s="4" t="str">
@@ -2764,7 +2916,7 @@
       </c>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2786,10 +2938,10 @@
         <v>32</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="4" t="str">
@@ -2803,7 +2955,7 @@
       </c>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2825,10 +2977,10 @@
         <v>32</v>
       </c>
       <c r="I35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="K35" s="21"/>
       <c r="L35" s="4" t="str">
@@ -2842,7 +2994,7 @@
       </c>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -2864,10 +3016,10 @@
         <v>32</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K36" s="21"/>
       <c r="L36" s="4" t="str">
@@ -2881,23 +3033,33 @@
       </c>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="18">
+        <v>44165</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="K37" s="21"/>
-      <c r="L37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="M37" s="5"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="P37" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
@@ -2913,7 +3075,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
@@ -2929,7 +3091,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
@@ -2945,7 +3107,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="18"/>
@@ -2961,7 +3123,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="18"/>
@@ -2977,7 +3139,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="18"/>
@@ -2993,7 +3155,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
@@ -3009,7 +3171,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
@@ -3025,7 +3187,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
@@ -3041,7 +3203,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="18"/>
@@ -3057,7 +3219,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="18"/>
@@ -3073,7 +3235,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="18"/>
@@ -3089,7 +3251,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
@@ -3105,7 +3267,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
@@ -3121,7 +3283,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="3:16" ht="290.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:16" ht="290.64999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
@@ -3137,7 +3299,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="18"/>
@@ -3197,9 +3359,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3210,7 +3372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3221,7 +3383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3232,7 +3394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3254,7 +3416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3265,7 +3427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3276,7 +3438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3284,7 +3446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3292,7 +3454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>27</v>
       </c>

--- a/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
+++ b/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\wiss1tool-wiss1 (17)\wiss1tool-wiss1\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CB777C-45EB-45E6-8CBA-A3F9C7554996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B7CB777C-45EB-45E6-8CBA-A3F9C7554996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB1D2890-0B2A-4839-B0BC-9D378449E78C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録表" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="111">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -335,30 +335,7 @@
     <t>W01CommonConst.java</t>
   </si>
   <si>
-    <t>メソッド名を小文字始まり</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>W01SelectTableHeader.java</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>W01SelectTableHeader.javaのメソッド名を変更</t>
-    <rPh sb="30" eb="31">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンコウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -376,16 +353,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>int型ではなくboolean型にする</t>
-    <rPh sb="3" eb="4">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>連動機能にてint型の9を受け渡ししている意味が読み取りずらい</t>
     <rPh sb="0" eb="2">
       <t>レンドウ</t>
@@ -430,28 +397,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>決められた番号以外を対象とした処理を追加</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力時のエラーがループしていない</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクジ</t>
@@ -459,35 +404,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力させる処理の場合はループ処理が必要</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※String形に変更</t>
-    <rPh sb="7" eb="8">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※要調査</t>
     <rPh sb="1" eb="2">
       <t>ヨウ</t>
@@ -498,16 +414,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ファイル名をConvertFileCsvToTsvに渡す</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>W01ConvertFileCsvToTsv</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -553,16 +459,6 @@
     <t>BufferedReaderにTBL_DELETE_ALLを詰める</t>
     <rPh sb="30" eb="31">
       <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TBL名だけを後からapendする</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1139,6 +1035,114 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ニシカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メソッド名を小文字始まりに修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W01SelectTableHeader.javaのメソッド名を変更
+main() ⇒ selectTableHeader()</t>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メソッド名を小文字始まりに修正</t>
+  </si>
+  <si>
+    <t>int型ではなくboolean型で受け渡すように変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決められた番号以外を入力した場合、エラーにするように変更</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力処理の場合はループ処理を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int型からString形に変更</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名をconvertFileCsvToTsvに渡すように変更</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TBL名以外を変数に詰めるように変更</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1665,38 +1669,38 @@
   <dimension ref="B2:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="1"/>
+    <col min="1" max="2" width="2.59765625" style="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.69921875" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="2.625" style="1"/>
+    <col min="16" max="16" width="34.3984375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
@@ -1762,14 +1766,14 @@
       </c>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C6" s="4">
         <f>IF(D6="","",ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>IF(N6="",IF(K6="",IF(E6="","","対応中"),"確認中"),"完了")</f>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E6" s="18">
         <v>44165</v>
@@ -1787,32 +1791,34 @@
         <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="K6" s="21">
+        <v>44166</v>
+      </c>
       <c r="L6" s="4" t="str">
         <f>G6</f>
         <v>中村</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="60" x14ac:dyDescent="0.45">
       <c r="C7" s="4">
         <f t="shared" ref="C7:C14" si="0">IF(D7="","",ROW()-5)</f>
         <v>2</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" ref="D7:D14" si="1">IF(N7="",IF(K7="",IF(E7="","","対応中"),"確認中"),"完了")</f>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E7" s="18">
         <v>44165</v>
@@ -1830,15 +1836,17 @@
         <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="K7" s="21">
+        <v>44166</v>
+      </c>
       <c r="L7" s="4" t="str">
         <f t="shared" ref="L7:L14" si="2">G7</f>
         <v>中村</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>42</v>
+      <c r="M7" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
@@ -1846,14 +1854,14 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E8" s="18">
         <v>44165</v>
@@ -1869,28 +1877,32 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="K8" s="21">
+        <v>44166</v>
+      </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>中村</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E9" s="18">
         <v>44165</v>
@@ -1905,18 +1917,20 @@
         <v>37</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="K9" s="21">
+        <v>44165</v>
+      </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>中村</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>45</v>
+      <c r="M9" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -1924,14 +1938,14 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E10" s="18">
         <v>44165</v>
@@ -1946,18 +1960,20 @@
         <v>37</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="K10" s="21">
+        <v>44167</v>
+      </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>中村</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>48</v>
+      <c r="M10" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
@@ -1965,14 +1981,14 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E11" s="18">
         <v>44165</v>
@@ -1987,35 +2003,37 @@
         <v>37</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="K11" s="21">
+        <v>44167</v>
+      </c>
       <c r="L11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>中村</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E12" s="18">
         <v>44165</v>
@@ -2030,35 +2048,37 @@
         <v>37</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="K12" s="21">
+        <v>44167</v>
+      </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>中村</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="45" x14ac:dyDescent="0.45">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E13" s="18">
         <v>44165</v>
@@ -2073,35 +2093,37 @@
         <v>37</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="K13" s="21">
+        <v>44166</v>
+      </c>
       <c r="L13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>中村</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>53</v>
+      <c r="M13" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E14" s="18">
         <v>44165</v>
@@ -2116,28 +2138,30 @@
         <v>37</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="K14" s="21">
+        <v>44167</v>
+      </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>中村</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>60</v>
+      <c r="M14" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C15" s="4">
         <f t="shared" ref="C15:C36" si="3">IF(D15="","",ROW()-5)</f>
         <v>10</v>
@@ -2159,29 +2183,29 @@
         <v>35</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K15" s="21">
         <v>44166</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="2:16" ht="94.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" ht="90" x14ac:dyDescent="0.45">
       <c r="C16" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2203,29 +2227,29 @@
         <v>35</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K16" s="21">
         <v>44166</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -2247,29 +2271,29 @@
         <v>35</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K17" s="21">
         <v>44166</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -2291,29 +2315,29 @@
         <v>35</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K18" s="21">
         <v>44167</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -2335,27 +2359,27 @@
         <v>34</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K19" s="21">
         <v>44166</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:16" ht="45" x14ac:dyDescent="0.45">
       <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -2377,29 +2401,29 @@
         <v>34</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K20" s="21">
         <v>44167</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:16" ht="45" x14ac:dyDescent="0.45">
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -2421,31 +2445,31 @@
         <v>36</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K21" s="21">
         <v>44167</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -2467,29 +2491,29 @@
         <v>36</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K22" s="21">
         <v>44167</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:16" ht="45" x14ac:dyDescent="0.45">
       <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2511,10 +2535,10 @@
         <v>33</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="str">
@@ -2528,7 +2552,7 @@
       </c>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -2547,13 +2571,13 @@
         <v>27</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="str">
@@ -2567,7 +2591,7 @@
       </c>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2589,10 +2613,10 @@
         <v>33</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="str">
@@ -2606,7 +2630,7 @@
       </c>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -2629,7 +2653,7 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="str">
@@ -2643,7 +2667,7 @@
       </c>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:16" ht="45" x14ac:dyDescent="0.45">
       <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2665,10 +2689,10 @@
         <v>32</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="4" t="str">
@@ -2682,7 +2706,7 @@
       </c>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2704,10 +2728,10 @@
         <v>32</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="4" t="str">
@@ -2721,7 +2745,7 @@
       </c>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2743,10 +2767,10 @@
         <v>32</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="4" t="str">
@@ -2760,7 +2784,7 @@
       </c>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2782,10 +2806,10 @@
         <v>32</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="4" t="str">
@@ -2799,7 +2823,7 @@
       </c>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:16" ht="45" x14ac:dyDescent="0.45">
       <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2821,10 +2845,10 @@
         <v>32</v>
       </c>
       <c r="I31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="4" t="str">
@@ -2838,7 +2862,7 @@
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2860,10 +2884,10 @@
         <v>32</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="4" t="str">
@@ -2877,7 +2901,7 @@
       </c>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="3:16" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:16" ht="30" x14ac:dyDescent="0.45">
       <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -2899,10 +2923,10 @@
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K33" s="21"/>
       <c r="L33" s="4" t="str">
@@ -2916,7 +2940,7 @@
       </c>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="3:16" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:16" ht="45" x14ac:dyDescent="0.45">
       <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2938,10 +2962,10 @@
         <v>32</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="4" t="str">
@@ -2955,7 +2979,7 @@
       </c>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2977,10 +3001,10 @@
         <v>32</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K35" s="21"/>
       <c r="L35" s="4" t="str">
@@ -2994,7 +3018,7 @@
       </c>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C36" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -3016,10 +3040,10 @@
         <v>32</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K36" s="21"/>
       <c r="L36" s="4" t="str">
@@ -3033,7 +3057,7 @@
       </c>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="18">
@@ -3046,20 +3070,20 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K37" s="21"/>
       <c r="L37" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
@@ -3075,7 +3099,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
@@ -3091,7 +3115,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
@@ -3107,7 +3131,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="18"/>
@@ -3123,7 +3147,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="18"/>
@@ -3139,7 +3163,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="18"/>
@@ -3155,7 +3179,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
@@ -3171,7 +3195,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
@@ -3187,7 +3211,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
@@ -3203,7 +3227,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="18"/>
@@ -3219,7 +3243,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="18"/>
@@ -3235,7 +3259,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="18"/>
@@ -3251,7 +3275,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
@@ -3267,7 +3291,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
@@ -3283,7 +3307,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="3:16" ht="290.64999999999998" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:16" ht="290.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
@@ -3299,7 +3323,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="18"/>
@@ -3359,9 +3383,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3369,10 +3393,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3383,7 +3407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3405,7 +3429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3416,7 +3440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3427,7 +3451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3438,7 +3462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3454,7 +3478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>27</v>
       </c>

--- a/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
+++ b/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B7CB777C-45EB-45E6-8CBA-A3F9C7554996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB1D2890-0B2A-4839-B0BC-9D378449E78C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録表" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -1146,12 +1145,145 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>メニューの順番を変更</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「該当する番号を選択してください」
+に変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>messageに変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※備考</t>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列型へ変更</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yesOrNo、tsvOrCsvへ変更</t>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小文字始まりへ変更</t>
+    <rPh sb="0" eb="3">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>163～168行目のif文でエラーを返す</t>
+    <rPh sb="7" eb="9">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「1または2」へ変更</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TODO消去</t>
+    <rPh sb="4" eb="6">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメントでエラー内容を記述</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>File fileArray1[]　→　File[] fileArray1へ変更</t>
+    <rPh sb="38" eb="40">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>197～199行目でエラーを返す</t>
+    <rPh sb="7" eb="9">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定数.equals(変数)の順へ変更</t>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※西尾対応</t>
+    <rPh sb="1" eb="2">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,42 +1797,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="2.59765625" style="1"/>
+    <col min="1" max="2" width="2.625" style="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.3984375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="2.59765625" style="1"/>
+    <col min="16" max="16" width="34.375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16">
       <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16">
       <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16">
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
@@ -1766,7 +1898,7 @@
       </c>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16">
       <c r="C6" s="4">
         <f>IF(D6="","",ROW()-5)</f>
         <v>1</v>
@@ -1811,7 +1943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="60" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" ht="63">
       <c r="C7" s="4">
         <f t="shared" ref="C7:C14" si="0">IF(D7="","",ROW()-5)</f>
         <v>2</v>
@@ -1854,7 +1986,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1895,7 +2027,7 @@
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="2:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="31.5">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1938,7 +2070,7 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="2:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="31.5">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1981,7 +2113,7 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="2:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="31.5">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2026,7 +2158,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2071,7 +2203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" ht="47.25">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2116,7 +2248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="31.5">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2161,7 +2293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="31.5">
       <c r="C15" s="4">
         <f t="shared" ref="C15:C36" si="3">IF(D15="","",ROW()-5)</f>
         <v>10</v>
@@ -2205,7 +2337,7 @@
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="2:16" ht="90" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="94.5">
       <c r="C16" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2249,7 +2381,7 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:16">
       <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -2293,7 +2425,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:16">
       <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -2337,7 +2469,7 @@
       </c>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:16">
       <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -2379,7 +2511,7 @@
       </c>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:16" ht="47.25">
       <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -2423,7 +2555,7 @@
       </c>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:16" ht="47.25">
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -2469,7 +2601,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:16">
       <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -2513,14 +2645,14 @@
       </c>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:16" ht="47.25">
       <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E23" s="18">
         <v>44165</v>
@@ -2540,26 +2672,30 @@
       <c r="J23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="21">
+        <v>44166</v>
+      </c>
       <c r="L23" s="4" t="str">
         <f t="shared" ref="L23:L36" si="5">G23</f>
         <v>西川</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:16" ht="31.5">
       <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E24" s="18">
         <v>44165</v>
@@ -2579,26 +2715,30 @@
       <c r="J24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="21">
+        <v>44166</v>
+      </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:16" ht="31.5">
       <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E25" s="18">
         <v>44165</v>
@@ -2618,26 +2758,30 @@
       <c r="J25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="21">
+        <v>44166</v>
+      </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:16">
       <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E26" s="18">
         <v>44165</v>
@@ -2655,7 +2799,9 @@
       <c r="J26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
@@ -2665,16 +2811,18 @@
       <c r="O26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+      <c r="P26" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" ht="47.25">
       <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E27" s="18">
         <v>44165</v>
@@ -2694,26 +2842,30 @@
       <c r="J27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="21"/>
+      <c r="K27" s="21">
+        <v>44166</v>
+      </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M27" s="4"/>
+      <c r="M27" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:16">
       <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E28" s="18">
         <v>44165</v>
@@ -2733,26 +2885,30 @@
       <c r="J28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="21">
+        <v>44166</v>
+      </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:16">
       <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E29" s="18">
         <v>44165</v>
@@ -2772,26 +2928,30 @@
       <c r="J29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="K29" s="21">
+        <v>44166</v>
+      </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:16" ht="31.5">
       <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E30" s="18">
         <v>44165</v>
@@ -2811,26 +2971,30 @@
       <c r="J30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>44167</v>
+      </c>
       <c r="L30" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:16" ht="47.25">
       <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E31" s="18">
         <v>44165</v>
@@ -2850,26 +3014,30 @@
       <c r="J31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <v>44165</v>
+      </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:16" ht="31.5">
       <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E32" s="18">
         <v>44165</v>
@@ -2889,26 +3057,30 @@
       <c r="J32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K32" s="21"/>
+      <c r="K32" s="21">
+        <v>44165</v>
+      </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M32" s="4"/>
+      <c r="M32" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="3:16" ht="30" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:16" ht="31.5">
       <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E33" s="18">
         <v>44165</v>
@@ -2928,26 +3100,30 @@
       <c r="J33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="21"/>
+      <c r="K33" s="21">
+        <v>44165</v>
+      </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="3:16" ht="45" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:16" ht="47.25">
       <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E34" s="18">
         <v>44165</v>
@@ -2967,26 +3143,30 @@
       <c r="J34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K34" s="21"/>
+      <c r="K34" s="21">
+        <v>44165</v>
+      </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M34" s="5"/>
+      <c r="M34" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:16">
       <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E35" s="18">
         <v>44165</v>
@@ -3006,26 +3186,30 @@
       <c r="J35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="21">
+        <v>44167</v>
+      </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M35" s="4"/>
+      <c r="M35" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:16">
       <c r="C36" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D36" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>対応中</v>
+        <v>確認中</v>
       </c>
       <c r="E36" s="18">
         <v>44165</v>
@@ -3045,19 +3229,23 @@
       <c r="J36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="21"/>
+      <c r="K36" s="21">
+        <v>44165</v>
+      </c>
       <c r="L36" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
-      <c r="M36" s="4"/>
+      <c r="M36" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:16">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="18">
@@ -3083,7 +3271,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:16">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
@@ -3099,7 +3287,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:16">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
@@ -3115,7 +3303,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:16">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
@@ -3131,7 +3319,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:16">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="18"/>
@@ -3147,7 +3335,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:16">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="18"/>
@@ -3163,7 +3351,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:16">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="18"/>
@@ -3179,7 +3367,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:16">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
@@ -3195,7 +3383,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:16">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
@@ -3211,7 +3399,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:16">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
@@ -3227,7 +3415,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:16">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="18"/>
@@ -3243,7 +3431,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:16">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="18"/>
@@ -3259,7 +3447,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:16">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="18"/>
@@ -3275,7 +3463,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:16">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
@@ -3291,7 +3479,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:16">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
@@ -3307,7 +3495,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="3:16" ht="290.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:16" ht="290.64999999999998" customHeight="1">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
@@ -3323,7 +3511,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:16">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="18"/>
@@ -3351,19 +3539,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
           <xm:sqref>G6:G53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F53 O6:O53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C:$C</xm:f>
           </x14:formula1>
@@ -3376,16 +3564,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3396,7 +3584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3407,7 +3595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3429,7 +3617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3440,7 +3628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3451,7 +3639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3462,7 +3650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3470,7 +3658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3478,7 +3666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>27</v>
       </c>

--- a/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
+++ b/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiss1\Documents\GitHub\wiss1tool\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2049A724-BBA7-4C56-BC20-9C498E250416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録表" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="135">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -616,19 +618,6 @@
     <t>utillのmessageをクラス変数にもつ</t>
     <rPh sb="17" eb="19">
       <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※他クラスも要確認</t>
-    <rPh sb="1" eb="2">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -903,85 +892,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>返却値をメソッド名を小文字始まりに修正
-例）return AllFileSorting();にする</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>定数が左に来るように修正</t>
-    <rPh sb="0" eb="2">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fileCheckにJavadocを追加</t>
-    <rPh sb="18" eb="20">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>int型の9を渡しているのをboolean型へ修正</t>
-    <rPh sb="3" eb="4">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>utillのmessageをクラス変数にもつように修正</t>
-    <rPh sb="17" eb="19">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>返却値をintからstringへ修正</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力値をintからstringへ</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクチ</t>
@@ -1278,12 +1188,278 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>deleteData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">※全クラス対象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>改修誤り（無限ループ）
+W01ConvertFileCsvToTsv.java</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ムゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>※全クラス対象⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>修正漏れがある。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>W01SelectTableData.java
+W01SelectTableHeader.java</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーマットされていない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不要となった定数は削除すべき</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>※他クラスも要確認⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>横展開されてない
+W01ShapeEvidence.java
+W01SelectTableHeader.java
+W01SelectTableData.java
+W01ConvertFileCsvToTsv.java</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正内容がわからないし、createCsvメソッドがフォーマットされていない。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横展開されていない。
+W01ConvertFileSelect.java　※コメント
+W01ShapeEvidence.java
+W01ToolMenu.java</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横展開されていない。
+WISS1CommonUtil.java</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横展開されていない。
+W01ConvertFileCsvToTsv.java
+W01ConvertFileSelect.java
+W01SelectTableHeader.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指摘箇所が修正されていないし、横展開もされていない。
+W01SelectTableHeader.java</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>井手</t>
+    <rPh sb="0" eb="2">
+      <t>イデ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">※全クラス対象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数名が大文字始まりがある。※要調査
+W01SelectTableHeader.java</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横展開されていない。
+W01SelectTableHeader.java
+W01ConvertFileSelect.java ※Javadoc修正漏れ</t>
+    <rPh sb="71" eb="73">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1311,6 +1487,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1414,7 +1597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1483,6 +1666,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,42 +1992,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="1"/>
+    <col min="1" max="2" width="2.58203125" style="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="2.625" style="1"/>
+    <col min="16" max="16" width="34.33203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +2055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
@@ -1898,14 +2093,14 @@
       </c>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="4">
         <f>IF(D6="","",ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>IF(N6="",IF(K6="",IF(E6="","","対応中"),"確認中"),"完了")</f>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E6" s="18">
         <v>44165</v>
@@ -1933,24 +2128,26 @@
         <v>中村</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N6" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="N6" s="21">
+        <v>44169</v>
+      </c>
       <c r="O6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="63">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="4">
         <f t="shared" ref="C7:C14" si="0">IF(D7="","",ROW()-5)</f>
         <v>2</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" ref="D7:D14" si="1">IF(N7="",IF(K7="",IF(E7="","","対応中"),"確認中"),"完了")</f>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E7" s="18">
         <v>44165</v>
@@ -1978,22 +2175,24 @@
         <v>中村</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="N7" s="21">
+        <v>44169</v>
+      </c>
       <c r="O7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E8" s="18">
         <v>44165</v>
@@ -2019,22 +2218,24 @@
         <v>中村</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N8" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="N8" s="21">
+        <v>44169</v>
+      </c>
       <c r="O8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="2:16" ht="31.5">
+    <row r="9" spans="2:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E9" s="18">
         <v>44165</v>
@@ -2062,22 +2263,24 @@
         <v>中村</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N9" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="N9" s="21">
+        <v>44169</v>
+      </c>
       <c r="O9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="2:16" ht="31.5">
+    <row r="10" spans="2:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E10" s="18">
         <v>44165</v>
@@ -2105,22 +2308,24 @@
         <v>中村</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="N10" s="21">
+        <v>44169</v>
+      </c>
       <c r="O10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="2:16" ht="31.5">
+    <row r="11" spans="2:16" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E11" s="18">
         <v>44165</v>
@@ -2148,24 +2353,26 @@
         <v>中村</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="O11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="P11" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E12" s="18">
         <v>44165</v>
@@ -2193,9 +2400,11 @@
         <v>中村</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="N12" s="21">
+        <v>44169</v>
+      </c>
       <c r="O12" s="4" t="s">
         <v>14</v>
       </c>
@@ -2203,14 +2412,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="47.25">
+    <row r="13" spans="2:16" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E13" s="18">
         <v>44165</v>
@@ -2238,9 +2447,11 @@
         <v>中村</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="N13" s="21">
+        <v>44169</v>
+      </c>
       <c r="O13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2248,14 +2459,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="31.5">
+    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E14" s="18">
         <v>44165</v>
@@ -2270,7 +2481,7 @@
         <v>37</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>52</v>
@@ -2283,9 +2494,11 @@
         <v>中村</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="N14" s="21">
+        <v>44169</v>
+      </c>
       <c r="O14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2293,7 +2506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="31.5">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="4">
         <f t="shared" ref="C15:C36" si="3">IF(D15="","",ROW()-5)</f>
         <v>10</v>
@@ -2329,15 +2542,15 @@
       <c r="M15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>54</v>
+      <c r="N15" s="23">
+        <v>44169</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="2:16" ht="94.5">
+    <row r="16" spans="2:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2373,15 +2586,15 @@
       <c r="M16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>91</v>
+      <c r="N16" s="23">
+        <v>44169</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="3:16">
+    <row r="17" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -2415,17 +2628,17 @@
         <v>55</v>
       </c>
       <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>92</v>
+      <c r="N17" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16">
+      <c r="P17" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -2461,15 +2674,17 @@
       <c r="M18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>60</v>
+      <c r="N18" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="3:16">
+      <c r="P18" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -2503,15 +2718,15 @@
         <v>55</v>
       </c>
       <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>93</v>
+      <c r="N19" s="21">
+        <v>44169</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="3:16" ht="47.25">
+    <row r="20" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -2547,15 +2762,17 @@
       <c r="M20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>94</v>
+      <c r="N20" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="3:16" ht="47.25">
+      <c r="P20" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="75" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -2580,28 +2797,28 @@
         <v>64</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K21" s="21">
         <v>44167</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>95</v>
+      <c r="N21" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16">
+      <c r="P21" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -2623,10 +2840,10 @@
         <v>36</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K22" s="21">
         <v>44167</v>
@@ -2635,24 +2852,26 @@
         <v>55</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="3:16" ht="47.25">
+      <c r="P22" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E23" s="18">
         <v>44165</v>
@@ -2667,10 +2886,10 @@
         <v>33</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="K23" s="21">
         <v>44166</v>
@@ -2680,22 +2899,24 @@
         <v>西川</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N23" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="N23" s="21">
+        <v>44169</v>
+      </c>
       <c r="O23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="3:16" ht="31.5">
+    <row r="24" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E24" s="18">
         <v>44165</v>
@@ -2707,13 +2928,13 @@
         <v>27</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="21">
         <v>44166</v>
@@ -2723,22 +2944,24 @@
         <v>西川</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="N24" s="21">
+        <v>44169</v>
+      </c>
       <c r="O24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="3:16" ht="31.5">
+    <row r="25" spans="3:16" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E25" s="18">
         <v>44165</v>
@@ -2753,10 +2976,10 @@
         <v>33</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25" s="21">
         <v>44166</v>
@@ -2766,22 +2989,26 @@
         <v>西川</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N25" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="O25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="3:16">
+      <c r="P25" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E26" s="18">
         <v>44165</v>
@@ -2797,32 +3024,34 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="5"/>
         <v>西川</v>
       </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="21">
+        <v>44169</v>
+      </c>
       <c r="O26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" ht="47.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E27" s="18">
         <v>44165</v>
@@ -2837,10 +3066,10 @@
         <v>32</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K27" s="21">
         <v>44166</v>
@@ -2850,22 +3079,24 @@
         <v>西川</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N27" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="N27" s="21">
+        <v>44169</v>
+      </c>
       <c r="O27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="3:16">
+    <row r="28" spans="3:16" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E28" s="18">
         <v>44165</v>
@@ -2880,10 +3111,10 @@
         <v>32</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K28" s="21">
         <v>44166</v>
@@ -2893,22 +3124,26 @@
         <v>西川</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="O28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="3:16">
+      <c r="P28" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E29" s="18">
         <v>44165</v>
@@ -2923,10 +3158,10 @@
         <v>32</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" s="21">
         <v>44166</v>
@@ -2936,22 +3171,24 @@
         <v>西川</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="N29" s="21">
+        <v>44169</v>
+      </c>
       <c r="O29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="3:16" ht="31.5">
+    <row r="30" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E30" s="18">
         <v>44165</v>
@@ -2966,10 +3203,10 @@
         <v>32</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K30" s="21">
         <v>44167</v>
@@ -2979,22 +3216,24 @@
         <v>西川</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N30" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="N30" s="21">
+        <v>44169</v>
+      </c>
       <c r="O30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="3:16" ht="47.25">
+    <row r="31" spans="3:16" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E31" s="18">
         <v>44165</v>
@@ -3009,10 +3248,10 @@
         <v>32</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K31" s="21">
         <v>44165</v>
@@ -3022,22 +3261,26 @@
         <v>西川</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="O31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="3:16" ht="31.5">
+      <c r="P31" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E32" s="18">
         <v>44165</v>
@@ -3052,10 +3295,10 @@
         <v>32</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="K32" s="21">
         <v>44165</v>
@@ -3065,22 +3308,26 @@
         <v>西川</v>
       </c>
       <c r="M32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="3:16" ht="31.5">
+      <c r="P32" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E33" s="18">
         <v>44165</v>
@@ -3095,10 +3342,10 @@
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="21">
         <v>44165</v>
@@ -3108,22 +3355,24 @@
         <v>西川</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N33" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="N33" s="21">
+        <v>44169</v>
+      </c>
       <c r="O33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="3:16" ht="47.25">
+      <c r="P33" s="26"/>
+    </row>
+    <row r="34" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E34" s="18">
         <v>44165</v>
@@ -3138,10 +3387,10 @@
         <v>32</v>
       </c>
       <c r="I34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="K34" s="21">
         <v>44165</v>
@@ -3151,22 +3400,26 @@
         <v>西川</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="O34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="3:16">
+      <c r="P34" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E35" s="18">
         <v>44165</v>
@@ -3181,10 +3434,10 @@
         <v>32</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" s="21">
         <v>44167</v>
@@ -3194,22 +3447,24 @@
         <v>西川</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N35" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="N35" s="21">
+        <v>44169</v>
+      </c>
       <c r="O35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D36" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>確認中</v>
+        <v>完了</v>
       </c>
       <c r="E36" s="18">
         <v>44165</v>
@@ -3224,10 +3479,10 @@
         <v>32</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K36" s="21">
         <v>44165</v>
@@ -3237,15 +3492,17 @@
         <v>西川</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N36" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="N36" s="21">
+        <v>44169</v>
+      </c>
       <c r="O36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="3:16">
+    <row r="37" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="18">
@@ -3258,20 +3515,24 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K37" s="21"/>
       <c r="L37" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M37" s="5"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16">
+      <c r="N37" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
@@ -3287,7 +3548,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="3:16">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
@@ -3303,7 +3564,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="3:16">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
@@ -3319,7 +3580,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="3:16">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="18"/>
@@ -3335,7 +3596,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="3:16">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="18"/>
@@ -3351,7 +3612,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="3:16">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="18"/>
@@ -3367,7 +3628,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="3:16">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
@@ -3383,7 +3644,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="3:16">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
@@ -3399,7 +3660,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="3:16">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
@@ -3415,7 +3676,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="3:16">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="18"/>
@@ -3431,7 +3692,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="3:16">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="18"/>
@@ -3447,7 +3708,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="3:16">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="18"/>
@@ -3463,7 +3724,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="3:16">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
@@ -3479,7 +3740,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="3:16">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
@@ -3495,7 +3756,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="3:16" ht="290.64999999999998" customHeight="1">
+    <row r="52" spans="3:16" ht="290.64999999999998" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
@@ -3511,7 +3772,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="3:16">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="18"/>
@@ -3539,19 +3800,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
           <xm:sqref>G6:G53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F53 O6:O53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$C:$C</xm:f>
           </x14:formula1>
@@ -3564,16 +3825,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3584,7 +3845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3595,7 +3856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3606,7 +3867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3617,7 +3878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3628,7 +3889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3639,7 +3900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3650,7 +3911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3658,7 +3919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3666,7 +3927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>27</v>
       </c>

--- a/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
+++ b/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiss1\Documents\GitHub\wiss1tool\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2049A724-BBA7-4C56-BC20-9C498E250416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1053790B-A3C2-4B70-9BD8-198F3A42FF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録表" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="147">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -888,29 +887,6 @@
     <t>No.21と同様</t>
     <rPh sb="6" eb="8">
       <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力値をintからstringへ</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力返却値</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1451,6 +1427,132 @@
     </rPh>
     <rPh sb="73" eb="74">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W01SelectTableHeader.java</t>
+  </si>
+  <si>
+    <t>w01\common\W01CommonUtil.java</t>
+  </si>
+  <si>
+    <t>w01\common\W01CommonConst.java</t>
+  </si>
+  <si>
+    <t>common\WISS1CommonUtil.java</t>
+  </si>
+  <si>
+    <t>common\WISS1CommonConst.java</t>
+  </si>
+  <si>
+    <t>NO.1と同じ</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.4と同じ</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの入力返却値を受け取る際はint型ではなくString形で受け取る</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値をint型ではなくstring型で受け取る</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>故障表記表済み</t>
+    <rPh sb="0" eb="2">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.7と同じ</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.12と同じ</t>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.25と同じ</t>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1499,7 +1601,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1527,6 +1629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,7 +1705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,9 +1772,6 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1678,6 +1783,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1993,45 +2119,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P53"/>
+  <dimension ref="B2:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="2.58203125" style="1"/>
+    <col min="1" max="2" width="2.625" style="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="2.58203125" style="1"/>
+    <col min="16" max="16" width="34.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="22" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2051,13 +2188,26 @@
         <v>17</v>
       </c>
       <c r="O4" s="16"/>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="Q4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="31"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
@@ -2091,9 +2241,42 @@
       <c r="O5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z5" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA5" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C6" s="4">
         <f>IF(D6="","",ROW()-5)</f>
         <v>1</v>
@@ -2128,7 +2311,7 @@
         <v>中村</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N6" s="21">
         <v>44169</v>
@@ -2137,10 +2320,21 @@
         <v>14</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="60" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="2:27" ht="63" x14ac:dyDescent="0.4">
       <c r="C7" s="4">
         <f t="shared" ref="C7:C14" si="0">IF(D7="","",ROW()-5)</f>
         <v>2</v>
@@ -2175,7 +2369,7 @@
         <v>中村</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N7" s="21">
         <v>44169</v>
@@ -2184,8 +2378,27 @@
         <v>14</v>
       </c>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2218,7 +2431,7 @@
         <v>中村</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N8" s="21">
         <v>44169</v>
@@ -2227,8 +2440,41 @@
         <v>14</v>
       </c>
       <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="2:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2263,7 +2509,7 @@
         <v>中村</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N9" s="21">
         <v>44169</v>
@@ -2272,8 +2518,33 @@
         <v>14</v>
       </c>
       <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="2:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2308,7 +2579,7 @@
         <v>中村</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N10" s="21">
         <v>44169</v>
@@ -2317,8 +2588,27 @@
         <v>14</v>
       </c>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2353,19 +2643,52 @@
         <v>中村</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>120</v>
+        <v>98</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2400,7 +2723,7 @@
         <v>中村</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N12" s="21">
         <v>44169</v>
@@ -2411,8 +2734,27 @@
       <c r="P12" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2447,7 +2789,7 @@
         <v>中村</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N13" s="21">
         <v>44169</v>
@@ -2458,8 +2800,39 @@
       <c r="P13" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q13" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2481,7 +2854,7 @@
         <v>37</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>52</v>
@@ -2494,7 +2867,7 @@
         <v>中村</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N14" s="21">
         <v>44169</v>
@@ -2505,8 +2878,39 @@
       <c r="P14" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C15" s="4">
         <f t="shared" ref="C15:C36" si="3">IF(D15="","",ROW()-5)</f>
         <v>10</v>
@@ -2542,15 +2946,48 @@
       <c r="M15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="22">
         <v>44169</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="2:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C16" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2586,15 +3023,36 @@
       <c r="M16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <v>44169</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -2628,17 +3086,36 @@
         <v>55</v>
       </c>
       <c r="M17" s="4"/>
-      <c r="N17" s="24" t="s">
-        <v>120</v>
+      <c r="N17" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -2674,17 +3151,42 @@
       <c r="M18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="24" t="s">
-        <v>120</v>
+      <c r="N18" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P18" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -2725,8 +3227,27 @@
         <v>14</v>
       </c>
       <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -2762,17 +3283,50 @@
       <c r="M20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="24" t="s">
-        <v>120</v>
+      <c r="N20" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" ht="75" x14ac:dyDescent="0.55000000000000004">
+      <c r="P20" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" ht="78.75" x14ac:dyDescent="0.4">
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -2808,17 +3362,36 @@
       <c r="M21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="24" t="s">
-        <v>120</v>
+      <c r="N21" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -2843,7 +3416,7 @@
         <v>69</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="K22" s="21">
         <v>44167</v>
@@ -2852,19 +3425,52 @@
         <v>55</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>127</v>
+        <v>142</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="P22" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2899,7 +3505,7 @@
         <v>西川</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N23" s="21">
         <v>44169</v>
@@ -2908,8 +3514,39 @@
         <v>14</v>
       </c>
       <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -2944,7 +3581,7 @@
         <v>西川</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N24" s="21">
         <v>44169</v>
@@ -2953,8 +3590,39 @@
         <v>14</v>
       </c>
       <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="3:16" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" ht="63" x14ac:dyDescent="0.4">
       <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2989,19 +3657,38 @@
         <v>西川</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>120</v>
+        <v>104</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -3027,7 +3714,7 @@
         <v>76</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3041,10 +3728,43 @@
         <v>14</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -3079,7 +3799,7 @@
         <v>西川</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N27" s="21">
         <v>44169</v>
@@ -3088,8 +3808,41 @@
         <v>14</v>
       </c>
       <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="3:16" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" ht="63" x14ac:dyDescent="0.4">
       <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -3124,19 +3877,38 @@
         <v>西川</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>120</v>
+        <v>107</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P28" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -3171,7 +3943,7 @@
         <v>西川</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N29" s="21">
         <v>44169</v>
@@ -3180,8 +3952,41 @@
         <v>14</v>
       </c>
       <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3216,7 +4021,7 @@
         <v>西川</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N30" s="21">
         <v>44169</v>
@@ -3225,8 +4030,27 @@
         <v>14</v>
       </c>
       <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="3:16" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" ht="63" x14ac:dyDescent="0.4">
       <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3261,19 +4085,38 @@
         <v>西川</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="P31" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3308,19 +4151,30 @@
         <v>西川</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P32" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="P32" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -3355,7 +4209,7 @@
         <v>西川</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N33" s="21">
         <v>44169</v>
@@ -3363,9 +4217,40 @@
       <c r="O33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P33" s="26"/>
-    </row>
-    <row r="34" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="P33" s="25"/>
+      <c r="Q33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3400,19 +4285,38 @@
         <v>西川</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="P34" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3447,7 +4351,7 @@
         <v>西川</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N35" s="21">
         <v>44169</v>
@@ -3456,8 +4360,41 @@
         <v>14</v>
       </c>
       <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C36" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -3492,7 +4429,7 @@
         <v>西川</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N36" s="21">
         <v>44169</v>
@@ -3501,8 +4438,41 @@
         <v>14</v>
       </c>
       <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="3:16" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="18">
@@ -3515,24 +4485,43 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K37" s="21"/>
       <c r="L37" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M37" s="5"/>
-      <c r="N37" s="24" t="s">
-        <v>120</v>
+      <c r="N37" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
@@ -3547,8 +4536,19 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
@@ -3563,8 +4563,19 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
@@ -3579,8 +4590,19 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="18"/>
@@ -3595,8 +4617,19 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="18"/>
@@ -3611,8 +4644,19 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="18"/>
@@ -3627,8 +4671,19 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
@@ -3643,8 +4698,19 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
@@ -3659,8 +4725,19 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
@@ -3675,8 +4752,19 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="18"/>
@@ -3691,8 +4779,19 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="18"/>
@@ -3707,8 +4806,19 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="18"/>
@@ -3723,8 +4833,19 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
@@ -3739,8 +4860,19 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
@@ -3755,8 +4887,19 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-    </row>
-    <row r="52" spans="3:16" ht="290.64999999999998" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+    </row>
+    <row r="52" spans="3:27" ht="290.64999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
@@ -3771,8 +4914,19 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="18"/>
@@ -3787,12 +4941,24 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3832,9 +4998,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3845,7 +5011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3856,7 +5022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3867,7 +5033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3878,7 +5044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3889,7 +5055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3900,7 +5066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3911,7 +5077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3919,7 +5085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3927,7 +5093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>27</v>
       </c>

--- a/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
+++ b/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1053790B-A3C2-4B70-9BD8-198F3A42FF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1053790B-A3C2-4B70-9BD8-198F3A42FF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FBE284F4-B9AE-4E0F-AE46-BB3C741B91B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録表" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="148">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -1553,6 +1553,13 @@
     <t>No.25と同じ</t>
     <rPh sb="6" eb="7">
       <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1784,11 +1791,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1801,9 +1811,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2128,47 +2135,47 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="1"/>
+    <col min="1" max="2" width="2.59765625" style="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.8984375" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.69921875" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="40.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="2.625" style="1"/>
+    <col min="26" max="26" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="2.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="C4" s="26" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2188,26 +2195,26 @@
         <v>17</v>
       </c>
       <c r="O4" s="16"/>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="31"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="32"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
@@ -2241,42 +2248,42 @@
       <c r="O5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="32" t="s">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="32" t="s">
+      <c r="U5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="X5" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AA5" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
       <c r="C6" s="4">
         <f>IF(D6="","",ROW()-5)</f>
         <v>1</v>
@@ -2326,15 +2333,19 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="2:27" ht="63" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27" ht="60" x14ac:dyDescent="0.45">
       <c r="C7" s="4">
         <f t="shared" ref="C7:C14" si="0">IF(D7="","",ROW()-5)</f>
         <v>2</v>
@@ -2378,12 +2389,18 @@
         <v>14</v>
       </c>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="U7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
         <v>140</v>
@@ -2398,7 +2415,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2474,7 +2491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2524,7 +2541,9 @@
       <c r="T9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="U9" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="V9" s="4" t="s">
         <v>140</v>
       </c>
@@ -2544,7 +2563,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2592,8 +2611,12 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="U10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
         <v>140</v>
@@ -2608,7 +2631,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27" ht="45" x14ac:dyDescent="0.45">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2688,7 +2711,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2738,8 +2761,12 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="U12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
         <v>140</v>
@@ -2754,7 +2781,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:27" ht="45" x14ac:dyDescent="0.45">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2800,7 +2827,7 @@
       <c r="P13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="26" t="s">
         <v>140</v>
       </c>
       <c r="R13" s="4" t="s">
@@ -2812,7 +2839,9 @@
       <c r="T13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="U13" s="4"/>
+      <c r="U13" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="V13" s="4" t="s">
         <v>140</v>
       </c>
@@ -2832,7 +2861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2890,7 +2919,9 @@
       <c r="T14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="U14" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="V14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2910,7 +2941,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
       <c r="C15" s="4">
         <f t="shared" ref="C15:C36" si="3">IF(D15="","",ROW()-5)</f>
         <v>10</v>
@@ -2987,7 +3018,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C16" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3036,8 +3067,12 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="U16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
         <v>140</v>
@@ -3052,7 +3087,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:27" ht="45" x14ac:dyDescent="0.45">
       <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3099,8 +3134,12 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="U17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
         <v>140</v>
@@ -3115,7 +3154,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3186,7 +3225,7 @@
       </c>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3231,8 +3270,12 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="U19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
         <v>140</v>
@@ -3247,7 +3290,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3326,7 +3369,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="3:27" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:27" ht="75" x14ac:dyDescent="0.45">
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3375,8 +3418,12 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="U21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
         <v>140</v>
@@ -3391,7 +3438,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3470,7 +3517,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:27" ht="45" x14ac:dyDescent="0.45">
       <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -3546,7 +3593,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -3622,7 +3669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="3:27" ht="63" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:27" ht="60" x14ac:dyDescent="0.45">
       <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -3672,8 +3719,12 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="U25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
         <v>140</v>
@@ -3688,7 +3739,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -3764,7 +3815,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:27" ht="45" x14ac:dyDescent="0.45">
       <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -3842,7 +3893,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="3:27" ht="63" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:27" ht="60" x14ac:dyDescent="0.45">
       <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -3892,8 +3943,12 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
+      <c r="U28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="s">
         <v>140</v>
@@ -3908,7 +3963,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -3986,7 +4041,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4034,8 +4089,12 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="U30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4" t="s">
         <v>140</v>
@@ -4050,7 +4109,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="3:27" ht="63" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:27" ht="60" x14ac:dyDescent="0.45">
       <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -4100,8 +4159,12 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="U31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="s">
         <v>140</v>
@@ -4116,7 +4179,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4166,15 +4229,19 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="U32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:27" ht="30" x14ac:dyDescent="0.45">
       <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -4250,7 +4317,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:27" ht="45" x14ac:dyDescent="0.45">
       <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -4300,8 +4367,12 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
+      <c r="U34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4" t="s">
         <v>140</v>
@@ -4316,7 +4387,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -4394,7 +4465,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C36" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -4472,7 +4543,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:27" ht="45" x14ac:dyDescent="0.45">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="18">
@@ -4505,8 +4576,12 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="U37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
         <v>140</v>
@@ -4521,7 +4596,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
@@ -4548,7 +4623,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
@@ -4575,7 +4650,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
@@ -4602,7 +4677,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="18"/>
@@ -4629,7 +4704,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="18"/>
@@ -4656,7 +4731,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="18"/>
@@ -4683,7 +4758,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
@@ -4710,7 +4785,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
@@ -4737,7 +4812,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
@@ -4764,7 +4839,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="18"/>
@@ -4791,7 +4866,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="18"/>
@@ -4818,7 +4893,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="18"/>
@@ -4845,7 +4920,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
@@ -4872,7 +4947,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
@@ -4899,7 +4974,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="3:27" ht="290.64999999999998" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:27" ht="290.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
@@ -4926,7 +5001,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="18"/>
@@ -4998,9 +5073,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5011,7 +5086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5022,7 +5097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5033,7 +5108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5044,7 +5119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5055,7 +5130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5066,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5077,7 +5152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5085,7 +5160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5093,7 +5168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>27</v>
       </c>

--- a/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
+++ b/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1053790B-A3C2-4B70-9BD8-198F3A42FF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FBE284F4-B9AE-4E0F-AE46-BB3C741B91B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A956B5-80FE-41FC-9FEA-1F244393182C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-4460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録表" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="149">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -1561,6 +1561,10 @@
     <rPh sb="0" eb="1">
       <t>スミ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>済</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2135,43 +2139,43 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="2.59765625" style="1"/>
+    <col min="1" max="2" width="2.625" style="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.8984375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="44" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.3984375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.75" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="40.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="2.59765625" style="1"/>
+    <col min="26" max="26" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2216,7 @@
       <c r="Z4" s="31"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="20" t="s">
@@ -2283,7 +2287,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C6" s="4">
         <f>IF(D6="","",ROW()-5)</f>
         <v>1</v>
@@ -2330,9 +2334,15 @@
         <v>90</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U6" s="4" t="s">
         <v>147</v>
       </c>
@@ -2340,12 +2350,20 @@
         <v>147</v>
       </c>
       <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="2:27" ht="60" x14ac:dyDescent="0.45">
+      <c r="X6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="63" x14ac:dyDescent="0.4">
       <c r="C7" s="4">
         <f t="shared" ref="C7:C14" si="0">IF(D7="","",ROW()-5)</f>
         <v>2</v>
@@ -2392,9 +2410,15 @@
       <c r="Q7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U7" s="4" t="s">
         <v>147</v>
       </c>
@@ -2415,7 +2439,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2491,7 +2515,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2536,8 +2560,12 @@
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="T9" s="4" t="s">
         <v>140</v>
       </c>
@@ -2563,7 +2591,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2608,9 +2636,15 @@
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="U10" s="4" t="s">
         <v>147</v>
       </c>
@@ -2631,7 +2665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="45" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2711,7 +2745,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2758,9 +2792,15 @@
         <v>46</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="U12" s="4" t="s">
         <v>147</v>
       </c>
@@ -2781,7 +2821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="45" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2861,7 +2901,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2941,7 +2981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C15" s="4">
         <f t="shared" ref="C15:C36" si="3">IF(D15="","",ROW()-5)</f>
         <v>10</v>
@@ -3018,7 +3058,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C16" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3064,9 +3104,15 @@
       <c r="Q16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U16" s="4" t="s">
         <v>140</v>
       </c>
@@ -3087,7 +3133,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="3:27" ht="45" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3131,9 +3177,15 @@
         <v>120</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="U17" s="4" t="s">
         <v>147</v>
       </c>
@@ -3154,7 +3206,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3202,9 +3254,15 @@
       <c r="Q18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="R18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U18" s="4" t="s">
         <v>140</v>
       </c>
@@ -3215,17 +3273,19 @@
         <v>140</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3267,9 +3327,15 @@
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="R19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U19" s="4" t="s">
         <v>147</v>
       </c>
@@ -3290,7 +3356,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="3:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3369,7 +3435,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="3:27" ht="75" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:27" ht="78.75" x14ac:dyDescent="0.4">
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3415,9 +3481,15 @@
         <v>123</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="R21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U21" s="4" t="s">
         <v>147</v>
       </c>
@@ -3438,7 +3510,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="3:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3517,7 +3589,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="3:27" ht="45" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -3593,7 +3665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="3:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -3669,7 +3741,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="3:27" ht="60" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:27" ht="63" x14ac:dyDescent="0.4">
       <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -3716,9 +3788,15 @@
         <v>126</v>
       </c>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
+      <c r="R25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U25" s="4" t="s">
         <v>147</v>
       </c>
@@ -3739,7 +3817,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -3815,7 +3893,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="3:27" ht="45" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -3893,7 +3971,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="3:27" ht="60" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:27" ht="63" x14ac:dyDescent="0.4">
       <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -3940,9 +4018,15 @@
         <v>132</v>
       </c>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="R28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U28" s="4" t="s">
         <v>147</v>
       </c>
@@ -3963,7 +4047,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -4041,7 +4125,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="3:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4086,9 +4170,15 @@
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="R30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U30" s="4" t="s">
         <v>147</v>
       </c>
@@ -4109,7 +4199,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="3:27" ht="60" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:27" ht="63" x14ac:dyDescent="0.4">
       <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -4156,9 +4246,15 @@
         <v>128</v>
       </c>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="R31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="U31" s="4" t="s">
         <v>147</v>
       </c>
@@ -4179,7 +4275,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="3:27" ht="30" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4226,9 +4322,15 @@
         <v>127</v>
       </c>
       <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U32" s="4" t="s">
         <v>147</v>
       </c>
@@ -4236,12 +4338,20 @@
         <v>147</v>
       </c>
       <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="3:27" ht="30" x14ac:dyDescent="0.45">
+      <c r="X32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
       <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -4317,7 +4427,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="3:27" ht="45" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -4364,9 +4474,15 @@
         <v>129</v>
       </c>
       <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="R34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="U34" s="4" t="s">
         <v>147</v>
       </c>
@@ -4387,7 +4503,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -4465,7 +4581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C36" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -4543,7 +4659,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="3:27" ht="45" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="18">
@@ -4573,9 +4689,15 @@
         <v>131</v>
       </c>
       <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
+      <c r="R37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="U37" s="4" t="s">
         <v>147</v>
       </c>
@@ -4596,7 +4718,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
@@ -4623,7 +4745,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
@@ -4650,7 +4772,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
@@ -4677,7 +4799,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="18"/>
@@ -4704,7 +4826,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="18"/>
@@ -4731,7 +4853,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="18"/>
@@ -4758,7 +4880,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
@@ -4785,7 +4907,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
@@ -4812,7 +4934,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
@@ -4839,7 +4961,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="18"/>
@@ -4866,7 +4988,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="18"/>
@@ -4893,7 +5015,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="18"/>
@@ -4920,7 +5042,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
@@ -4947,7 +5069,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
@@ -4974,7 +5096,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="3:27" ht="290.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:27" ht="290.64999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
@@ -5001,7 +5123,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="18"/>
@@ -5073,9 +5195,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5086,7 +5208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5097,7 +5219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5108,7 +5230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5119,7 +5241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5130,7 +5252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5141,7 +5263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5152,7 +5274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5160,7 +5282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5168,7 +5290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>27</v>
       </c>

--- a/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
+++ b/document/【第五技術本部】技術研修UPG案レビュー記録表_202011.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A956B5-80FE-41FC-9FEA-1F244393182C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-4460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録表" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="149">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -1571,8 +1570,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2129,17 +2128,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="2.625" style="1"/>
     <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
@@ -2170,12 +2169,12 @@
     <col min="28" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27">
       <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:27">
       <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2215,7 @@
       <c r="Z4" s="31"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:27">
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="20" t="s">
@@ -2287,7 +2286,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:27">
       <c r="C6" s="4">
         <f>IF(D6="","",ROW()-5)</f>
         <v>1</v>
@@ -2333,7 +2332,9 @@
       <c r="P6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R6" s="4" t="s">
         <v>147</v>
       </c>
@@ -2349,7 +2350,9 @@
       <c r="V6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X6" s="4" t="s">
         <v>147</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="63" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27" ht="63">
       <c r="C7" s="4">
         <f t="shared" ref="C7:C14" si="0">IF(D7="","",ROW()-5)</f>
         <v>2</v>
@@ -2425,7 +2428,9 @@
       <c r="V7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W7" s="4"/>
+      <c r="W7" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X7" s="4" t="s">
         <v>140</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:27">
       <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2515,7 +2520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27" ht="31.5">
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2559,7 +2564,9 @@
         <v>14</v>
       </c>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R9" s="4" t="s">
         <v>148</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27" ht="31.5">
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2635,7 +2642,9 @@
         <v>14</v>
       </c>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R10" s="4" t="s">
         <v>148</v>
       </c>
@@ -2651,7 +2660,9 @@
       <c r="V10" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="W10" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X10" s="4" t="s">
         <v>140</v>
       </c>
@@ -2665,7 +2676,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27" ht="47.25">
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2745,7 +2756,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:27">
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2791,7 +2802,9 @@
       <c r="P12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R12" s="4" t="s">
         <v>148</v>
       </c>
@@ -2807,7 +2820,9 @@
       <c r="V12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X12" s="4" t="s">
         <v>140</v>
       </c>
@@ -2821,7 +2836,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:27" ht="47.25">
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2901,7 +2916,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:27" ht="31.5">
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2981,7 +2996,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:27">
       <c r="C15" s="4">
         <f t="shared" ref="C15:C36" si="3">IF(D15="","",ROW()-5)</f>
         <v>10</v>
@@ -3058,7 +3073,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:27" ht="31.5">
       <c r="C16" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3119,7 +3134,9 @@
       <c r="V16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="W16" s="4"/>
+      <c r="W16" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X16" s="4" t="s">
         <v>140</v>
       </c>
@@ -3133,7 +3150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:27" ht="47.25">
       <c r="C17" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3176,7 +3193,9 @@
       <c r="P17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R17" s="4" t="s">
         <v>140</v>
       </c>
@@ -3192,7 +3211,9 @@
       <c r="V17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W17" s="4"/>
+      <c r="W17" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X17" s="4" t="s">
         <v>140</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:27">
       <c r="C18" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3285,7 +3306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:27">
       <c r="C19" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3326,7 +3347,9 @@
         <v>14</v>
       </c>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R19" s="4" t="s">
         <v>147</v>
       </c>
@@ -3342,7 +3365,9 @@
       <c r="V19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W19" s="4"/>
+      <c r="W19" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X19" s="4" t="s">
         <v>140</v>
       </c>
@@ -3356,7 +3381,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:27" ht="31.5">
       <c r="C20" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3435,7 +3460,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="3:27" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:27" ht="78.75">
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3480,7 +3505,9 @@
       <c r="P21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R21" s="4" t="s">
         <v>147</v>
       </c>
@@ -3496,7 +3523,9 @@
       <c r="V21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X21" s="4" t="s">
         <v>140</v>
       </c>
@@ -3510,7 +3539,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:27" ht="31.5">
       <c r="C22" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3589,7 +3618,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:27" ht="47.25">
       <c r="C23" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -3633,7 +3662,9 @@
         <v>14</v>
       </c>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R23" s="4" t="s">
         <v>140</v>
       </c>
@@ -3665,7 +3696,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:27" ht="31.5">
       <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -3709,7 +3740,9 @@
         <v>14</v>
       </c>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R24" s="4" t="s">
         <v>140</v>
       </c>
@@ -3741,7 +3774,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="3:27" ht="63" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:27" ht="63">
       <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -3787,7 +3820,9 @@
       <c r="P25" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="Q25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R25" s="4" t="s">
         <v>147</v>
       </c>
@@ -3803,7 +3838,9 @@
       <c r="V25" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X25" s="4" t="s">
         <v>140</v>
       </c>
@@ -3817,7 +3854,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:27">
       <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -3893,7 +3930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:27" ht="47.25">
       <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -3971,7 +4008,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="3:27" ht="63" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:27" ht="63">
       <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -4017,7 +4054,9 @@
       <c r="P28" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="Q28" s="4"/>
+      <c r="Q28" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R28" s="4" t="s">
         <v>147</v>
       </c>
@@ -4033,7 +4072,9 @@
       <c r="V28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W28" s="4"/>
+      <c r="W28" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X28" s="4" t="s">
         <v>140</v>
       </c>
@@ -4047,7 +4088,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:27">
       <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -4125,7 +4166,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:27" ht="31.5">
       <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4169,7 +4210,9 @@
         <v>14</v>
       </c>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R30" s="4" t="s">
         <v>147</v>
       </c>
@@ -4185,7 +4228,9 @@
       <c r="V30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W30" s="4"/>
+      <c r="W30" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X30" s="4" t="s">
         <v>140</v>
       </c>
@@ -4199,7 +4244,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="3:27" ht="63" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:27" ht="63">
       <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -4245,7 +4290,9 @@
       <c r="P31" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="Q31" s="4"/>
+      <c r="Q31" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R31" s="4" t="s">
         <v>147</v>
       </c>
@@ -4261,7 +4308,9 @@
       <c r="V31" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W31" s="4"/>
+      <c r="W31" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X31" s="4" t="s">
         <v>140</v>
       </c>
@@ -4275,7 +4324,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:27" ht="31.5">
       <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -4321,7 +4370,9 @@
       <c r="P32" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R32" s="4" t="s">
         <v>147</v>
       </c>
@@ -4337,7 +4388,9 @@
       <c r="V32" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W32" s="4"/>
+      <c r="W32" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X32" s="4" t="s">
         <v>147</v>
       </c>
@@ -4351,7 +4404,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="3:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:27" ht="31.5">
       <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -4413,7 +4466,9 @@
       <c r="V33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="W33" s="4"/>
+      <c r="W33" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X33" s="4" t="s">
         <v>140</v>
       </c>
@@ -4427,7 +4482,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:27" ht="47.25">
       <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -4473,7 +4528,9 @@
       <c r="P34" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="Q34" s="4"/>
+      <c r="Q34" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R34" s="4" t="s">
         <v>140</v>
       </c>
@@ -4489,7 +4546,9 @@
       <c r="V34" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="4"/>
+      <c r="W34" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X34" s="4" t="s">
         <v>140</v>
       </c>
@@ -4503,7 +4562,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:27">
       <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -4581,7 +4640,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:27">
       <c r="C36" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -4659,7 +4718,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="3:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:27" ht="47.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="18">
@@ -4688,7 +4747,9 @@
       <c r="P37" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="Q37" s="4"/>
+      <c r="Q37" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="R37" s="4" t="s">
         <v>147</v>
       </c>
@@ -4704,7 +4765,9 @@
       <c r="V37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="W37" s="4"/>
+      <c r="W37" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="X37" s="4" t="s">
         <v>140</v>
       </c>
@@ -4718,7 +4781,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:27">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
@@ -4745,7 +4808,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:27">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
@@ -4772,7 +4835,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:27">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="18"/>
@@ -4799,7 +4862,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:27">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="18"/>
@@ -4826,7 +4889,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:27">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="18"/>
@@ -4853,7 +4916,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:27">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="18"/>
@@ -4880,7 +4943,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:27">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="18"/>
@@ -4907,7 +4970,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:27">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="18"/>
@@ -4934,7 +4997,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:27">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="18"/>
@@ -4961,7 +5024,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:27">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="18"/>
@@ -4988,7 +5051,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:27">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="18"/>
@@ -5015,7 +5078,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:27">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="18"/>
@@ -5042,7 +5105,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:27">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
@@ -5069,7 +5132,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:27">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
@@ -5096,7 +5159,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="3:27" ht="290.64999999999998" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:27" ht="290.64999999999998" customHeight="1">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
@@ -5123,7 +5186,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:27">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="18"/>
@@ -5163,19 +5226,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B:$B</xm:f>
           </x14:formula1>
           <xm:sqref>G6:G53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F53 O6:O53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C:$C</xm:f>
           </x14:formula1>
@@ -5188,16 +5251,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5208,7 +5271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5219,7 +5282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5230,7 +5293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5241,7 +5304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5252,7 +5315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5263,7 +5326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5274,7 +5337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5282,7 +5345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5290,7 +5353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
